--- a/results/results_formatted/evaluation_freeRoaming20_run3_formatted.xlsx
+++ b/results/results_formatted/evaluation_freeRoaming20_run3_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Desktop\bro usb n papa\results (free roaming)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (free roaming)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729A8583-EC94-4299-9B87-B27E48D403EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_freeRoaming20_run3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,28 +948,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,7 +1010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1042,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1074,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1115,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1156,7 @@
         <v>75.040000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1197,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1238,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1279,7 @@
         <v>68.510000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1320,7 @@
         <v>49.55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1361,7 @@
         <v>64.08</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1402,7 @@
         <v>39.21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1443,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1433,7 +1484,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1474,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1566,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1556,7 +1607,7 @@
         <v>52.64</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1639,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1671,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1712,7 @@
         <v>11.19</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1794,7 @@
         <v>71.849999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +1835,7 @@
         <v>84.33</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1908,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1949,7 @@
         <v>41.76</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1981,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1971,7 +2022,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2063,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2104,7 @@
         <v>75.48</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2094,7 +2145,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2135,7 +2186,7 @@
         <v>49.42</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2176,7 +2227,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2217,7 +2268,7 @@
         <v>11.77</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2309,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2299,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2382,7 @@
         <v>22.65</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2414,7 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2446,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -2436,7 +2487,7 @@
         <v>72.290000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -2477,7 +2528,7 @@
         <v>73.13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2569,7 @@
         <v>66.28</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -2559,7 +2610,7 @@
         <v>45.97</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -2600,7 +2651,7 @@
         <v>28.34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -2641,7 +2692,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2724,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -2714,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -2755,7 +2806,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2838,7 @@
         <v>29.92</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2870,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +2911,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +2952,7 @@
         <v>69.23</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +2993,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +3025,7 @@
         <v>24.15</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3066,7 @@
         <v>22.23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -3056,7 +3107,7 @@
         <v>41.98</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3139,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +3180,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +3221,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3211,7 +3262,7 @@
         <v>71.930000000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -3252,7 +3303,7 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3325,7 +3376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -3366,7 +3417,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,7 +3449,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -3439,7 +3490,7 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -3480,7 +3531,7 @@
         <v>66.78</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -3521,7 +3572,7 @@
         <v>24.36</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3604,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -3594,7 +3645,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -3605,7 +3656,7 @@
         <v>513.35</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +3667,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -3627,7 +3678,7 @@
         <v>70.58</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -3638,7 +3689,7 @@
         <v>156.51</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3649,7 +3700,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -3660,7 +3711,7 @@
         <v>383.37</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3722,7 @@
         <v>342.78</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -3680,6 +3731,54 @@
       </c>
       <c r="C77">
         <v>100.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="3">
+        <f>COUNTIF(A2:A69,"transportation")</f>
+        <v>51</v>
+      </c>
+      <c r="G80" s="3">
+        <f>AVERAGEIF(A2:A69,"transportation",F2:F69)</f>
+        <v>142.25725490196078</v>
+      </c>
+      <c r="H80" s="3">
+        <f>AVERAGEIF(A2:A69,"transportation",H2:H69)</f>
+        <v>77.167058823529402</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="3">
+        <f>COUNTIF(A2:A69,"charging")</f>
+        <v>17</v>
+      </c>
+      <c r="G81" s="3">
+        <f>AVERAGEIF(A2:A69,"charging",F2:F69)</f>
+        <v>38.80705882352941</v>
+      </c>
+      <c r="H81" s="3">
+        <f>AVERAGEIF(A2:A69,"charging",H2:H69)</f>
+        <v>0.28764705882352942</v>
       </c>
     </row>
   </sheetData>
